--- a/docs/Trazabilidad del diseño.xlsx
+++ b/docs/Trazabilidad del diseño.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro Suarez\Documents\Veterinary\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1FE448-5568-437D-8567-5E06BFD0B21F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB343058-B2A7-4094-A3BD-C5AF4401C6D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8365FF1-FBFF-48D6-B424-37245321CF98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>RF</t>
   </si>
@@ -82,6 +82,66 @@
   </si>
   <si>
     <t>hospitalizeAPet(nameClie, idClie, namePe, newMedRec, medics):void</t>
+  </si>
+  <si>
+    <t>Ver info de mascotas de un cliente</t>
+  </si>
+  <si>
+    <t>infoPetClient(idInfo):String</t>
+  </si>
+  <si>
+    <t>Ver info de un cliente</t>
+  </si>
+  <si>
+    <t>Cambiar la dirección y el número telefónico de un cliente</t>
+  </si>
+  <si>
+    <t>changeClientData(cAdress, cNumber):void</t>
+  </si>
+  <si>
+    <t>Agregar una medicina a una mascota en hospitalización</t>
+  </si>
+  <si>
+    <t>ClinicHistory</t>
+  </si>
+  <si>
+    <t>addNewMedicine(mName, mDose, mDP, mFreq):String</t>
+  </si>
+  <si>
+    <t>Agregar un nuevo diagnostico a una mascota en hospitalización</t>
+  </si>
+  <si>
+    <t>addNewDiagnosis(nDiagnosis):void</t>
+  </si>
+  <si>
+    <t>Agregar un nuevo síntoma a una mascota en hospitalización</t>
+  </si>
+  <si>
+    <t>addNewSymptom(nSymptom):void</t>
+  </si>
+  <si>
+    <t>Ver ingresos por cada servicio</t>
+  </si>
+  <si>
+    <t>cPS()String</t>
+  </si>
+  <si>
+    <t>Ver ingresos por todos los servicios</t>
+  </si>
+  <si>
+    <t>tIncome()String</t>
+  </si>
+  <si>
+    <t>Agregar un nuevo servicio</t>
+  </si>
+  <si>
+    <t>addService(nService):void</t>
+  </si>
+  <si>
+    <t>Ver promedio de ingresos por cada servicio</t>
+  </si>
+  <si>
+    <t>promIncomes():String</t>
   </si>
 </sst>
 </file>
@@ -441,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C09A35-8F9A-4EC8-A36E-32AE48D56417}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -449,9 +509,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,6 +595,116 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
